--- a/basic entry.xlsx
+++ b/basic entry.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7906fa02fae7939c/Desktop/github/Data-analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{6143FFB2-95D7-4051-8100-816E57719314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5E7A79A-E6AA-4729-96E8-2B7D76C25940}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{6143FFB2-95D7-4051-8100-816E57719314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5414405D-69FE-438F-9B0F-E263D30528A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{68C63DDA-B297-4B7F-A1E8-44034CEA070D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{68C63DDA-B297-4B7F-A1E8-44034CEA070D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -368,9 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,6 +393,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,6 +412,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,10 +969,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="12"/>
       <c r="C12">
         <f>SUM(C2:C11)</f>
         <v>219</v>
@@ -1001,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1623A8-F774-4184-802D-6D2C0B03A54C}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,546 +1030,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>23</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>30327</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>7433903938</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>22</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>33391</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>8762602887</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>24</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>35007</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>9871176634</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>21</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>23734</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>8315113940</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>27157</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>7950559918</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>20</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>35386</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>8067996798</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>20</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>33143</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>9557831594</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>22</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>21645</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>9300719057</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>24</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>27531</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>8117705160</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>31347</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>9355626994</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f>SUM(D2:D11)</f>
         <v>219</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f>SUM(E2:E11)</f>
         <v>298668</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1591,4 +1596,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E596ECA-35AC-41C2-A366-1695D77A2A26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>